--- a/medicine/Médecine vétérinaire/Jean_Desanlis/Jean_Desanlis.xlsx
+++ b/medicine/Médecine vétérinaire/Jean_Desanlis/Jean_Desanlis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jean Desanlis, né le 5 septembre 1925 à Montloué (Aisne) et mort le 5 février 2023[1] à Paimpol[2] en Bretagne, est un homme politique français.
+Jean Desanlis, né le 5 septembre 1925 à Montloué (Aisne) et mort le 5 février 2023 à Paimpol en Bretagne, est un homme politique français.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sorti de l'École nationale vétérinaire d'Alfort en 1950, Jean Desanlis exerce d'abord sa profession à Montoire puis s'installe à Vendôme en juin 1951.
 Il est élu au conseil municipal de Vendôme en mars 1959, sous le mandat de Gérard Yvon, puis il devient maire-adjoint en 1974, Robert Lasneau étant maire, et sera réélu en 1983.
-Aux élections cantonales de septembre 1973, il est élu conseiller général du canton de Saint-Amand-Longpré, puis réélu en 1982. Il devient vice-président du conseil général en 1976[3]. Parallèlement, sous l'étiquette de l'Union centriste puis de l'UDF, il est député de Loir-et-Cher (3e circonscription) le 2 avril 1973 puis réélu sans interruption jusqu'au 21 avril 1997.
-Il est signataire de l'« appel des 43 » en faveur d'une candidature de Valéry Giscard d'Estaing à l'élection présidentielle de 1974[4].
+Aux élections cantonales de septembre 1973, il est élu conseiller général du canton de Saint-Amand-Longpré, puis réélu en 1982. Il devient vice-président du conseil général en 1976. Parallèlement, sous l'étiquette de l'Union centriste puis de l'UDF, il est député de Loir-et-Cher (3e circonscription) le 2 avril 1973 puis réélu sans interruption jusqu'au 21 avril 1997.
+Il est signataire de l'« appel des 43 » en faveur d'une candidature de Valéry Giscard d'Estaing à l'élection présidentielle de 1974.
 </t>
         </is>
       </c>
